--- a/1129/middle-L.xlsx
+++ b/1129/middle-L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takedakiyoshi/lab/kline/KLINE/1129/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFC51AC-8011-E846-B339-2E7966928D0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC46967B-2D08-B24A-8BEB-982C94D0790B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31660" yWindow="2360" windowWidth="21120" windowHeight="14920" xr2:uid="{7CC73CB4-CDDD-EC44-B32E-84A35A9C188A}"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="16280" windowHeight="14920" xr2:uid="{7CC73CB4-CDDD-EC44-B32E-84A35A9C188A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,12 +80,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -93,6 +87,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,17 +126,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -145,16 +142,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -340,114 +343,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>748313</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47424</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5524CC-DDCD-C643-AB02-1478E0F640E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2241833" y="1910080"/>
-          <a:ext cx="176247" cy="169344"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC476EFE-1159-B546-BCE8-41D3361E10C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2225040" y="2143760"/>
-          <a:ext cx="1202267" cy="209973"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>169334</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -502,32 +397,86 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>663574</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160865</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>835399</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:rowOff>140227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D90AEF-7306-9D4F-B4D2-0ABCB2FDD742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7814732" y="4204227"/>
+          <a:ext cx="8468" cy="240773"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>715904</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>834810</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C178DC-39BB-2B46-A160-AD042A24B326}"/>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0771827-F908-1142-842D-53035ECD44D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2149474" y="3314700"/>
-          <a:ext cx="171825" cy="238125"/>
+        <a:xfrm flipH="1">
+          <a:off x="3995492" y="2555210"/>
+          <a:ext cx="118906" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -568,23 +517,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>160865</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>707813</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89747</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>140227</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D90AEF-7306-9D4F-B4D2-0ABCB2FDD742}"/>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D15EF5-F96D-2045-BFF0-B2722398939E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -592,8 +541,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7814732" y="4204227"/>
-          <a:ext cx="8468" cy="240773"/>
+          <a:off x="1347893" y="2942693"/>
+          <a:ext cx="235374" cy="452440"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -622,32 +571,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>782320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>110067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E7948B-8D6A-5B4D-8301-90F3231E917B}"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5955BF52-85C0-FC49-BEB8-13893B6C4C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2255520" y="2650067"/>
-          <a:ext cx="1188722" cy="336973"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1422400" y="2936240"/>
+          <a:ext cx="162561" cy="221827"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -676,38 +625,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>715904</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>834810</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15210</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>539694</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>43966</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0771827-F908-1142-842D-53035ECD44D1}"/>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F4EF2F-6B57-1C44-A7A5-1757EEAC5C76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3995492" y="2555210"/>
-          <a:ext cx="118906" cy="254000"/>
+        <a:xfrm>
+          <a:off x="2033214" y="3820160"/>
+          <a:ext cx="347552" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -742,38 +691,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635090</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>418083</xdr:colOff>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7741</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>3176</xdr:rowOff>
+      <xdr:rowOff>7470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9C0E0B-ABB6-D14E-A33A-0A971FF439C9}"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398D6DA6-509E-8244-A17B-5EF350ED22FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="747058" y="2289176"/>
-          <a:ext cx="306025" cy="254000"/>
+        <a:xfrm flipH="1">
+          <a:off x="2958443" y="2293470"/>
+          <a:ext cx="328886" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -809,199 +758,37 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>707813</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>148693</xdr:rowOff>
+      <xdr:colOff>736301</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>89747</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>93133</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D15EF5-F96D-2045-BFF0-B2722398939E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1347893" y="2942693"/>
-          <a:ext cx="235374" cy="452440"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>782320</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>91441</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5955BF52-85C0-FC49-BEB8-13893B6C4C01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1422400" y="2936240"/>
-          <a:ext cx="162561" cy="221827"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>721360</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>111760</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C340126D-CA2B-6946-8B0B-0C62B9A213B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2214880" y="2387600"/>
-          <a:ext cx="1188720" cy="518160"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488894</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>836446</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1767</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F4EF2F-6B57-1C44-A7A5-1757EEAC5C76}"/>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AB8EBD-1F3C-4840-9AA3-EBF01E2C704B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1972434" y="3793142"/>
-          <a:ext cx="347552" cy="252876"/>
+        <a:xfrm flipH="1">
+          <a:off x="1376381" y="2293470"/>
+          <a:ext cx="118906" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1036,32 +823,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>764248</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>795</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657412</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>948765</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7652</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EB3A2E-7B9F-A848-98AA-6465345B5576}"/>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2922B9-48BB-124B-8EFF-3767A8246FDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4040398" y="3034514"/>
-          <a:ext cx="85087" cy="252876"/>
+        <a:xfrm flipH="1">
+          <a:off x="2980765" y="1023651"/>
+          <a:ext cx="291353" cy="254001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,38 +889,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>635090</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7741</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7470</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>252876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>252876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398D6DA6-509E-8244-A17B-5EF350ED22FD}"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40961720-82AF-4649-9188-D2FB0BFE0CF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2958443" y="2293470"/>
-          <a:ext cx="328886" cy="254000"/>
+        <a:xfrm>
+          <a:off x="1493520" y="3554876"/>
+          <a:ext cx="487680" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1168,38 +955,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>14941</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133847</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7470</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>505752</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AB8EBD-1F3C-4840-9AA3-EBF01E2C704B}"/>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9706686A-0715-F94F-9B92-725810AC6148}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="649941" y="2293470"/>
-          <a:ext cx="118906" cy="254000"/>
+        <a:xfrm>
+          <a:off x="3781902" y="3293009"/>
+          <a:ext cx="347552" cy="252876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1234,38 +1021,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>627529</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>15302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>952822</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15302</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>646240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>252876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDD0E07-7558-D543-8F8E-59EE1EED1A29}"/>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD4258F-6E63-1747-B676-74DB1DA9A72C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2950882" y="2047302"/>
-          <a:ext cx="325293" cy="254000"/>
+        <a:xfrm>
+          <a:off x="3922390" y="2781637"/>
+          <a:ext cx="207920" cy="252876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1300,23 +1087,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657412</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>948765</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7652</xdr:rowOff>
+      <xdr:colOff>2840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>252876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2922B9-48BB-124B-8EFF-3767A8246FDE}"/>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A46E74-A207-3340-9C05-ECD8973D9ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,8 +1111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2980765" y="1023651"/>
-          <a:ext cx="291353" cy="254001"/>
+          <a:off x="2011680" y="2794000"/>
+          <a:ext cx="327960" cy="252876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1366,38 +1153,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>252876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>347552</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>252876</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7298</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>232077</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40961720-82AF-4649-9188-D2FB0BFE0CF1}"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1844519-218B-314F-A397-AE052A961441}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1483540" y="3540265"/>
-          <a:ext cx="347552" cy="252876"/>
+        <a:xfrm flipH="1">
+          <a:off x="642298" y="2797393"/>
+          <a:ext cx="224779" cy="250607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1432,23 +1219,77 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>505752</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>5620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4764</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>5620</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>473317</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF555AA1-2AF7-7041-9E4F-2272170E6B77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="473317" y="2926080"/>
+          <a:ext cx="339483" cy="5951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647552</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>251311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>849256</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>251311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9706686A-0715-F94F-9B92-725810AC6148}"/>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785F1742-B06C-174C-A2BE-1D30E289FB15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,14 +1297,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3781902" y="3293009"/>
-          <a:ext cx="347552" cy="252876"/>
+          <a:off x="1287632" y="2029311"/>
+          <a:ext cx="201704" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1498,38 +1339,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>646240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>5620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>252876</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>832224</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD4258F-6E63-1747-B676-74DB1DA9A72C}"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F7DE78-A551-A449-82FC-1F36A685F94E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3922390" y="2781637"/>
-          <a:ext cx="207920" cy="252876"/>
+        <a:xfrm flipH="1">
+          <a:off x="2153920" y="1788160"/>
+          <a:ext cx="171824" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1565,31 +1406,139 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>721360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C340126D-CA2B-6946-8B0B-0C62B9A213B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2214880" y="2387600"/>
+          <a:ext cx="1188720" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>327960</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>252876</xdr:rowOff>
+      <xdr:rowOff>193040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E7948B-8D6A-5B4D-8301-90F3231E917B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2255520" y="2650067"/>
+          <a:ext cx="1188722" cy="336973"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>772160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>18867</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="正方形/長方形 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A46E74-A207-3340-9C05-ECD8973D9ABD}"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BF2621-F80A-5C4C-86C6-75125A6D52FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1483540" y="2781637"/>
-          <a:ext cx="327960" cy="252876"/>
+        <a:xfrm>
+          <a:off x="2265680" y="2296160"/>
+          <a:ext cx="89987" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1630,23 +1579,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7298</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>232077</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>528320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1844519-218B-314F-A397-AE052A961441}"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF192C4-E151-5448-8694-649AE3C0CD87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1654,8 +1603,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="642298" y="2797393"/>
-          <a:ext cx="224779" cy="250607"/>
+          <a:off x="3820160" y="2042160"/>
+          <a:ext cx="325293" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,32 +1645,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>473317</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>172720</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>138031</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF555AA1-2AF7-7041-9E4F-2272170E6B77}"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC476EFE-1159-B546-BCE8-41D3361E10C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="473317" y="2926080"/>
-          <a:ext cx="339483" cy="5951"/>
+        <a:xfrm>
+          <a:off x="2225040" y="2143760"/>
+          <a:ext cx="1202267" cy="209973"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1750,32 +1699,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7472</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>843280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7146</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>7471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209176</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7471</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="正方形/長方形 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785F1742-B06C-174C-A2BE-1D30E289FB15}"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504E40DC-67B1-3941-B33C-B797EB270AA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="642472" y="2039471"/>
-          <a:ext cx="201704" cy="254000"/>
+        <a:xfrm flipH="1">
+          <a:off x="3180080" y="1778000"/>
+          <a:ext cx="118906" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1817,22 +1766,76 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>748313</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171824</xdr:colOff>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5524CC-DDCD-C643-AB02-1478E0F640E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2241833" y="1910080"/>
+          <a:ext cx="176247" cy="169344"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12731</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F7DE78-A551-A449-82FC-1F36A685F94E}"/>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D6411A-638F-A74F-B59B-9F709E800148}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,8 +1843,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1486647" y="1778000"/>
-          <a:ext cx="171824" cy="254000"/>
+          <a:off x="2976880" y="2042160"/>
+          <a:ext cx="327691" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2183,7 +2186,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2197,89 +2200,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="G8" s="8"/>
       <c r="H8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
